--- a/medicine/Pharmacie/Asaret_d'Europe/Asaret_d'Europe.xlsx
+++ b/medicine/Pharmacie/Asaret_d'Europe/Asaret_d'Europe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Asaret_d%27Europe</t>
+          <t>Asaret_d'Europe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Asarum europaeum
 L’Asaret d'Europe (Asarum europaeum) est une espèce de petite plante vivace d'Europe centrale du genre Asarum et de la famille des Aristolochiaceae.
-Son nom scientifique vient du grec « ἄσαρον - asaron », de « asê » signifiant « dégoût », « nausée » (allusion à son odeur)[1].
-Ses noms vernaculaires sont asaret, cabaret, oreille-d'homme. De manière secondaire et régionale, il est nommé oreillette, rondelle, roussin, herbe de Cabaret ou encore nard sauvage[2]. Le terme « cabaret » évoquerait l'usage qu'en faisaient autrefois les ivrognes après leurs excès pour se dégager l'estomac, dissiper leur ivresse. La plante a en effet des propriétés vomitives.
+Son nom scientifique vient du grec « ἄσαρον - asaron », de « asê » signifiant « dégoût », « nausée » (allusion à son odeur).
+Ses noms vernaculaires sont asaret, cabaret, oreille-d'homme. De manière secondaire et régionale, il est nommé oreillette, rondelle, roussin, herbe de Cabaret ou encore nard sauvage. Le terme « cabaret » évoquerait l'usage qu'en faisaient autrefois les ivrognes après leurs excès pour se dégager l'estomac, dissiper leur ivresse. La plante a en effet des propriétés vomitives.
 </t>
         </is>
       </c>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Asaret_d%27Europe</t>
+          <t>Asaret_d'Europe</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'asaret d'Europe est une plante vivace de 5-20 cm[réf. nécessaire] et basse (géophyte). Sa floraison, passant souvent inaperçue, se déroule de mars à mai. Ses fruits sont disséminés par les fourmis.
 Toute la plante est velue et a une odeur âcre, poivrée à camphrée (voire nauséabonde). La fleur, quant à elle, rappelle la noix de muscade ; la racine, le niaouli[réf. nécessaire].
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Asaret_d%27Europe</t>
+          <t>Asaret_d'Europe</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,14 +561,12 @@
           <t>Distribution géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Asarum europaeum est présent en Europe centrale, surtout en climat montagnard, excepté la région méditerranéenne.
-En France[1], elle est assez commune dans le Nord-Est et les Pyrénées; assez rare dans le massif central et le Nord; nulle dans l'Ouest et la région méditerranéenne. Elle est présente de l'étage collinéen à montagnard (jusqu'à 1 700 m.)
-Écologie
-L'asaret d'Europe est une espèce d'ombre (plus rarement de demi-ombre). Il apprécie les sols riches en bases dont le pH est neutre à basique. Il affectionne particulièrement les granites riches en fer et en manganèse, les sols calcaires ainsi que les roches volcaniques basiques comme le basalte. Ses exigences en eau sont assez souples.
-Biotope
-Asarum europaeum apprécie les forêts de feuillus neutrophiles et calcicoles[1] : hêtraies (Fagetalia sylvaticae), hêtraies-chênaies, chênaies (Carpinion betuli)[3], hêtraies-sapinières (Fagion sylvaticae), érablières à Lunaires (Lunario-Acerion)
+En France, elle est assez commune dans le Nord-Est et les Pyrénées; assez rare dans le massif central et le Nord; nulle dans l'Ouest et la région méditerranéenne. Elle est présente de l'étage collinéen à montagnard (jusqu'à 1 700 m.)
 </t>
         </is>
       </c>
@@ -565,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Asaret_d%27Europe</t>
+          <t>Asaret_d'Europe</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,18 +592,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Usages et protections</t>
+          <t>Distribution géographique</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'Asaret d'Europe est une plante très toxique. Il serait tout de même utilisé comme parfum[4]. Il fait partie des plantes dont la culture est recommandée dans les jardins du domaine royal par le capitulaire De Villis.
-Propriétés médicinales
-Sa racine serait un puissant anti-douleur[4].
-La plante entière en teinture-mère serait vomitive, expectorante, sternutatoire[4],[1]  et insectifuge. Elle est utilisée pour soigner les dermatoses, les mycoses et la bronchite[4].
-Protection
-En France[5], ce taxon est soumis à des règlementations de portée départementale (Marne) et de portée régionale (Ile de France, Centre, Basse-Normandie, Midi-Pyrénées)
-Asarum europaeum est à protéger dans le nord de la France par la conservation de peuplement de feuillus[1].
+          <t>Écologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'asaret d'Europe est une espèce d'ombre (plus rarement de demi-ombre). Il apprécie les sols riches en bases dont le pH est neutre à basique. Il affectionne particulièrement les granites riches en fer et en manganèse, les sols calcaires ainsi que les roches volcaniques basiques comme le basalte. Ses exigences en eau sont assez souples.
 </t>
         </is>
       </c>
@@ -602,7 +614,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Asaret_d%27Europe</t>
+          <t>Asaret_d'Europe</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -617,12 +629,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Us et coutumes</t>
+          <t>Distribution géographique</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dans le calendrier républicain, créé pendant la Révolution française de 1789, l'Asaret correspond au 6 Ventôse, ce qui équivaut au 24 février du calendrier grégorien
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Asarum europaeum apprécie les forêts de feuillus neutrophiles et calcicoles : hêtraies (Fagetalia sylvaticae), hêtraies-chênaies, chênaies (Carpinion betuli), hêtraies-sapinières (Fagion sylvaticae), érablières à Lunaires (Lunario-Acerion)
 </t>
         </is>
       </c>
@@ -633,7 +651,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Asaret_d%27Europe</t>
+          <t>Asaret_d'Europe</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -648,15 +666,159 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Usages et protections</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Asaret d'Europe est une plante très toxique. Il serait tout de même utilisé comme parfum. Il fait partie des plantes dont la culture est recommandée dans les jardins du domaine royal par le capitulaire De Villis.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Asaret_d'Europe</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Asaret_d%27Europe</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Usages et protections</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Propriétés médicinales</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa racine serait un puissant anti-douleur.
+La plante entière en teinture-mère serait vomitive, expectorante, sternutatoire,  et insectifuge. Elle est utilisée pour soigner les dermatoses, les mycoses et la bronchite.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Asaret_d'Europe</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Asaret_d%27Europe</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Usages et protections</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, ce taxon est soumis à des règlementations de portée départementale (Marne) et de portée régionale (Ile de France, Centre, Basse-Normandie, Midi-Pyrénées)
+Asarum europaeum est à protéger dans le nord de la France par la conservation de peuplement de feuillus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Asaret_d'Europe</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Asaret_d%27Europe</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Us et coutumes</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le calendrier républicain, créé pendant la Révolution française de 1789, l'Asaret correspond au 6 Ventôse, ce qui équivaut au 24 février du calendrier grégorien
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Asaret_d'Europe</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Asaret_d%27Europe</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Il existe plusieurs sous-espèces[2]:
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Il existe plusieurs sous-espèces:
 Asarum europaeum subsp. caucasicum (Duch.) Soó, cette dernière étant passée au rang d'espèce sous le nom Asarum caucasicum (Duch.) N.Busch., 1909
 Asarum europaeum subsp. europaeum
-Asarum europaeum subsp. italicum Kukkonen &amp; Uotila[6]</t>
+Asarum europaeum subsp. italicum Kukkonen &amp; Uotila</t>
         </is>
       </c>
     </row>
